--- a/readme.xlsx
+++ b/readme.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="公式1" sheetId="1" r:id="rId1"/>
+    <sheet name="公式2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>density</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -627,7 +627,7 @@
         <v>0.99524226256204917</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B73" si="2">A10*193.798-189</f>
+        <f t="shared" ref="B10:B35" si="2">A10*193.798-189</f>
         <v>3.8759600000000205</v>
       </c>
       <c r="D10">
@@ -641,7 +641,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <f t="shared" ref="A11:A35" si="4">A10+0.02</f>
+        <f t="shared" ref="A11:A34" si="4">A10+0.02</f>
         <v>1.0152422625620492</v>
       </c>
       <c r="B11">
@@ -1627,12 +1627,877 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <f>284/285.7</f>
+        <v>0.99404970248512425</v>
+      </c>
+      <c r="B2">
+        <f>A2*(-285.7)+284</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>284/285.7</f>
+        <v>0.99404970248512425</v>
+      </c>
+      <c r="E2">
+        <f>D2*(-285.7)+284</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <f>A2-0.005</f>
+        <v>0.98904970248512425</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B28" si="0">A3*(-285.7)+284</f>
+        <v>1.4284999999999854</v>
+      </c>
+      <c r="D3">
+        <f>D2-0.001</f>
+        <v>0.99304970248512425</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">D3*(-285.7)+284</f>
+        <v>0.28570000000001983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f t="shared" ref="A4:A25" si="2">A3-0.005</f>
+        <v>0.98404970248512424</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.8570000000000277</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D66" si="3">D3-0.001</f>
+        <v>0.99204970248512425</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.57140000000003965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>0.97904970248512424</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4.2855000000000132</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0.99104970248512425</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.85710000000000264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>0.97404970248512424</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5.7139999999999986</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.99004970248512425</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.1428000000000225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>0.96904970248512423</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>7.1425000000000409</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.98904970248512425</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.4284999999999854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>0.96404970248512423</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>8.5710000000000264</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.98804970248512425</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.7142000000000053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>0.95904970248512422</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9.9995000000000118</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0.98704970248512425</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.9999000000000251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>0.95404970248512422</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.427999999999997</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0.98604970248512425</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.2855999999999881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>0.94904970248512421</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>12.85650000000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0.98504970248512425</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.5713000000000079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>0.94404970248512421</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>14.285000000000025</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0.98404970248512424</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2.8570000000000277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>0.9390497024851242</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>15.71350000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0.98304970248512424</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.1426999999999907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>0.9340497024851242</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>17.142000000000053</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>0.98204970248512424</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.4284000000000106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>0.9290497024851242</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>18.570500000000038</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0.98104970248512424</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.7141000000000304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>0.92404970248512419</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>19.999000000000024</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>0.98004970248512424</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3.9997999999999934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>0.91904970248512419</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>21.427500000000009</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>0.97904970248512424</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.2855000000000132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>0.91404970248512418</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>22.856000000000051</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>0.97804970248512424</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4.571200000000033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>0.90904970248512418</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>24.284500000000037</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>0.97704970248512424</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4.856899999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>0.90404970248512417</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>25.713000000000022</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0.97604970248512424</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5.1426000000000158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>0.89904970248512417</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>27.141500000000008</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0.97504970248512424</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5.4283000000000357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>0.89404970248512416</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>28.57000000000005</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>0.97404970248512424</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>5.7139999999999986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>0.88904970248512416</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>29.998500000000035</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0.97304970248512423</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>5.9997000000000185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>0.88404970248512416</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>31.427000000000049</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0.97204970248512423</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>6.2854000000000383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>0.87904970248512415</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>32.855500000000035</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0.97104970248512423</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>6.5711000000000013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.97004970248512423</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>6.8568000000000211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.96904970248512423</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>7.1425000000000409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.96804970248512423</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>7.4282000000000039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.96704970248512423</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>7.7139000000000237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.96604970248512423</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.9996000000000436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.96504970248512423</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>8.2853000000000065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.96404970248512423</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>8.5710000000000264</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.96304970248512423</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>8.8567000000000462</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0.96204970248512423</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>9.1424000000000092</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.96104970248512422</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>9.428100000000029</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.96004970248512422</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>9.713799999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.95904970248512422</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>9.9995000000000118</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.95804970248512422</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>10.285200000000032</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.95704970248512422</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>10.570899999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.95604970248512422</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>10.856600000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.95504970248512422</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>11.142300000000034</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>0.95404970248512422</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>11.427999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>0.95304970248512422</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>11.713700000000017</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>0.95204970248512422</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>11.999400000000037</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0.95104970248512422</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>12.2851</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>0.95004970248512421</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>12.57080000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>0.94904970248512421</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>12.85650000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>0.94804970248512421</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>13.142200000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>0.94704970248512421</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>13.427900000000022</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>0.94604970248512421</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>13.713600000000042</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>0.94504970248512421</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>13.999300000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>0.94404970248512421</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>14.285000000000025</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>0.94304970248512421</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>14.570700000000045</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54">
+        <f t="shared" si="3"/>
+        <v>0.94204970248512421</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>14.856400000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>0.94104970248512421</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>15.142100000000028</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56">
+        <f t="shared" si="3"/>
+        <v>0.94004970248512421</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>15.427800000000047</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57">
+        <f t="shared" si="3"/>
+        <v>0.9390497024851242</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>15.71350000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>0.9380497024851242</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>15.99920000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>0.9370497024851242</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>16.28490000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>0.9360497024851242</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>16.570600000000013</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>0.9350497024851242</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>16.856300000000033</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>0.9340497024851242</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>17.142000000000053</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>0.9330497024851242</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>17.427700000000016</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>0.9320497024851242</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>17.713400000000036</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>0.9310497024851242</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>17.999100000000055</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>0.9300497024851242</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>18.284800000000018</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公式1" sheetId="1" r:id="rId1"/>
     <sheet name="公式2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="酒精" sheetId="3" r:id="rId3"/>
+    <sheet name="密度、波美度、比重度对照表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>density</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,12 +67,64 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>质量百分比</t>
+  </si>
+  <si>
+    <t>酒精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度、波美度、比重度对照表</t>
+  </si>
+  <si>
+    <r>
+      <t>密度(g/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>波美度</t>
+  </si>
+  <si>
+    <t>比重度</t>
+  </si>
+  <si>
+    <t>密度/g/cm3</t>
+  </si>
+  <si>
+    <t>密度(g/cm3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        注：波美比重计应在15.6度温度下测定，温度每相差1度，波美计则相差0.054度。温度高于标准时加，低则减。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +149,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,12 +193,186 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -119,9 +381,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1629,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1679,7 +1989,7 @@
         <v>0.98904970248512425</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B28" si="0">A3*(-285.7)+284</f>
+        <f t="shared" ref="B3:B25" si="0">A3*(-285.7)+284</f>
         <v>1.4284999999999854</v>
       </c>
       <c r="D3">
@@ -2506,14 +2816,1886 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BD52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>0.99528000000000005</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>0.99243000000000003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>0.98973</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>0.98475999999999997</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>0.98233000000000004</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>0.98009000000000002</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>0.97785999999999995</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="B12" s="2">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>0.97145000000000004</v>
+      </c>
+      <c r="B13" s="2">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>0.96924999999999994</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>0.96699000000000002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>0.96465000000000001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>0.96223999999999998</v>
+      </c>
+      <c r="B17" s="2">
+        <v>24.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>0.95972000000000002</v>
+      </c>
+      <c r="B18" s="2">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>0.95703000000000005</v>
+      </c>
+      <c r="B19" s="2">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>0.95418999999999998</v>
+      </c>
+      <c r="B20" s="2">
+        <v>29.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>0.94804999999999995</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>0.94477</v>
+      </c>
+      <c r="B23" s="2">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>0.94135000000000002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>36.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>0.93776000000000004</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>0.93444000000000005</v>
+      </c>
+      <c r="B26" s="2">
+        <v>40.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>0.93017000000000005</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>0.92617000000000005</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>0.92208999999999997</v>
+      </c>
+      <c r="B29" s="2">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>0.91788999999999998</v>
+      </c>
+      <c r="B30" s="2">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>0.90915000000000001</v>
+      </c>
+      <c r="B32" s="2">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="2">
+        <v>0.90463000000000005</v>
+      </c>
+      <c r="B33" s="2">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="2">
+        <v>0.90000999999999998</v>
+      </c>
+      <c r="B34" s="2">
+        <v>56.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="2">
+        <v>0.89531000000000005</v>
+      </c>
+      <c r="B35" s="2">
+        <v>58.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56">
+      <c r="A36" s="2">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="B36" s="2">
+        <v>60.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56">
+      <c r="A37" s="2">
+        <v>0.88558000000000003</v>
+      </c>
+      <c r="B37" s="2">
+        <v>62.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56">
+      <c r="A38" s="2">
+        <v>0.88056000000000001</v>
+      </c>
+      <c r="B38" s="2">
+        <v>64.540000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56">
+      <c r="A39" s="2">
+        <v>0.87541999999999998</v>
+      </c>
+      <c r="B39" s="2">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56">
+      <c r="A40" s="2">
+        <v>0.87019000000000002</v>
+      </c>
+      <c r="B40" s="2">
+        <v>68.94</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+    </row>
+    <row r="41" spans="1:56">
+      <c r="A41" s="2">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="B41" s="2">
+        <v>71.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56">
+      <c r="A42" s="2">
+        <v>0.85928000000000004</v>
+      </c>
+      <c r="B42" s="2">
+        <v>73.489999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56">
+      <c r="A43" s="2">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="B43" s="2">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+    </row>
+    <row r="44" spans="1:56">
+      <c r="A44" s="2">
+        <v>0.84785999999999995</v>
+      </c>
+      <c r="B44" s="2">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56">
+      <c r="A45" s="2">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="B45" s="2">
+        <v>80.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56">
+      <c r="A46" s="2">
+        <v>0.83569000000000004</v>
+      </c>
+      <c r="B46" s="2">
+        <v>83.12</v>
+      </c>
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56">
+      <c r="A47" s="2">
+        <v>0.82925000000000004</v>
+      </c>
+      <c r="B47" s="2">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56">
+      <c r="A48" s="2">
+        <v>0.82245999999999997</v>
+      </c>
+      <c r="B48" s="2">
+        <v>88.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>0.81525999999999998</v>
+      </c>
+      <c r="B49" s="2">
+        <v>91.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>0.80749000000000004</v>
+      </c>
+      <c r="B50" s="2">
+        <v>93.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="B51" s="2">
+        <v>96.82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>0.78934000000000004</v>
+      </c>
+      <c r="B52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:37" ht="26.25" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" ht="21.75">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="E3" s="9">
+        <v>30.83</v>
+      </c>
+      <c r="F3" s="10">
+        <v>54</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="H3" s="9">
+        <v>50.84</v>
+      </c>
+      <c r="I3" s="11">
+        <v>108</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U3" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A4" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="E4" s="9">
+        <v>31.72</v>
+      </c>
+      <c r="F4" s="10">
+        <v>56</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="H4" s="9">
+        <v>51.45</v>
+      </c>
+      <c r="I4" s="11">
+        <v>110</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.27</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="S4" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A5" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="E5" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="F5" s="10">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="H5" s="9">
+        <v>52.05</v>
+      </c>
+      <c r="I5" s="11">
+        <v>112</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.55</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="18.75">
+      <c r="A6" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4.22</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>33.46</v>
+      </c>
+      <c r="F6" s="10">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.57</v>
+      </c>
+      <c r="H6" s="9">
+        <v>52.64</v>
+      </c>
+      <c r="I6" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18.75">
+      <c r="A7" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="E7" s="9">
+        <v>34.31</v>
+      </c>
+      <c r="F7" s="10">
+        <v>62</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.58</v>
+      </c>
+      <c r="H7" s="9">
+        <v>53.23</v>
+      </c>
+      <c r="I7" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18.75">
+      <c r="A8" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6.91</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="E8" s="9">
+        <v>35.15</v>
+      </c>
+      <c r="F8" s="10">
+        <v>64</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="H8" s="9">
+        <v>53.8</v>
+      </c>
+      <c r="I8" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A9" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="E9" s="9">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="F9" s="10">
+        <v>66</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="9">
+        <v>54.38</v>
+      </c>
+      <c r="I9" s="11">
+        <v>120</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1.44</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="N9" s="9">
+        <v>4.22</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="P9" s="9">
+        <v>6.91</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="R9" s="9">
+        <v>9.49</v>
+      </c>
+      <c r="S9" s="9">
+        <v>10.74</v>
+      </c>
+      <c r="T9" s="9">
+        <v>11.97</v>
+      </c>
+      <c r="U9" s="9">
+        <v>13.18</v>
+      </c>
+      <c r="V9" s="9">
+        <v>14.37</v>
+      </c>
+      <c r="W9" s="9">
+        <v>15.54</v>
+      </c>
+      <c r="X9" s="9">
+        <v>16.68</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>18.91</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>21.07</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>22.12</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>23.15</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>24.17</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>25.16</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>26.15</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>27.11</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>28.06</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>29</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A10" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9.49</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="E10" s="9">
+        <v>36.79</v>
+      </c>
+      <c r="F10" s="10">
+        <v>68</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="H10" s="9">
+        <v>54.94</v>
+      </c>
+      <c r="I10" s="11">
+        <v>122</v>
+      </c>
+      <c r="K10" s="9">
+        <v>30.83</v>
+      </c>
+      <c r="L10" s="9">
+        <v>31.72</v>
+      </c>
+      <c r="M10" s="9">
+        <v>32.6</v>
+      </c>
+      <c r="N10" s="9">
+        <v>33.46</v>
+      </c>
+      <c r="O10" s="9">
+        <v>34.31</v>
+      </c>
+      <c r="P10" s="9">
+        <v>35.15</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="R10" s="9">
+        <v>36.79</v>
+      </c>
+      <c r="S10" s="9">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="T10" s="9">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="U10" s="9">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="V10" s="9">
+        <v>39.93</v>
+      </c>
+      <c r="W10" s="9">
+        <v>40.68</v>
+      </c>
+      <c r="X10" s="9">
+        <v>41.43</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>42.16</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>42.89</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>43.6</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>44.31</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>45.68</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>46.36</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>47.03</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>47.68</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>48.33</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>48.97</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>49.6</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>50.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="19.5" thickBot="1">
+      <c r="A11" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10.74</v>
+      </c>
+      <c r="C11" s="10">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="E11" s="9">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="F11" s="10">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="H11" s="9">
+        <v>55.49</v>
+      </c>
+      <c r="I11" s="11">
+        <v>124</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50.84</v>
+      </c>
+      <c r="L11" s="9">
+        <v>51.45</v>
+      </c>
+      <c r="M11" s="9">
+        <v>52.05</v>
+      </c>
+      <c r="N11" s="9">
+        <v>52.64</v>
+      </c>
+      <c r="O11" s="9">
+        <v>53.23</v>
+      </c>
+      <c r="P11" s="9">
+        <v>53.8</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>54.38</v>
+      </c>
+      <c r="R11" s="9">
+        <v>54.94</v>
+      </c>
+      <c r="S11" s="9">
+        <v>55.49</v>
+      </c>
+      <c r="T11" s="9">
+        <v>56.04</v>
+      </c>
+      <c r="U11" s="9">
+        <v>56.58</v>
+      </c>
+      <c r="V11" s="9">
+        <v>57.12</v>
+      </c>
+      <c r="W11" s="9">
+        <v>57.65</v>
+      </c>
+      <c r="X11" s="9">
+        <v>58.17</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>58.69</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>59.71</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>60.2</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>61.18</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>61.67</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>62.14</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>62.61</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>63.08</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>63.54</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>63.99</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18.75">
+      <c r="A12" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11.97</v>
+      </c>
+      <c r="C12" s="10">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="E12" s="9">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="F12" s="10">
+        <v>72</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="H12" s="9">
+        <v>56.04</v>
+      </c>
+      <c r="I12" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="18.75">
+      <c r="A13" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="9">
+        <v>13.18</v>
+      </c>
+      <c r="C13" s="10">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="E13" s="9">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="F13" s="10">
+        <v>74</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="H13" s="9">
+        <v>56.58</v>
+      </c>
+      <c r="I13" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18.75">
+      <c r="A14" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B14" s="9">
+        <v>14.37</v>
+      </c>
+      <c r="C14" s="10">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="E14" s="9">
+        <v>39.93</v>
+      </c>
+      <c r="F14" s="10">
+        <v>76</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="H14" s="9">
+        <v>57.12</v>
+      </c>
+      <c r="I14" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="18.75">
+      <c r="A15" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B15" s="9">
+        <v>15.54</v>
+      </c>
+      <c r="C15" s="10">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.39</v>
+      </c>
+      <c r="E15" s="9">
+        <v>40.68</v>
+      </c>
+      <c r="F15" s="10">
+        <v>78</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="H15" s="9">
+        <v>57.65</v>
+      </c>
+      <c r="I15" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="18.75">
+      <c r="A16" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B16" s="9">
+        <v>16.68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>41.43</v>
+      </c>
+      <c r="F16" s="10">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="H16" s="9">
+        <v>58.17</v>
+      </c>
+      <c r="I16" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75">
+      <c r="A17" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B17" s="9">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="C17" s="10">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="E17" s="9">
+        <v>42.16</v>
+      </c>
+      <c r="F17" s="10">
+        <v>82</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="H17" s="9">
+        <v>58.69</v>
+      </c>
+      <c r="I17" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
+      <c r="A18" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B18" s="9">
+        <v>18.91</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42.89</v>
+      </c>
+      <c r="F18" s="10">
+        <v>84</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.69</v>
+      </c>
+      <c r="H18" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="I18" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
+      <c r="A19" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B19" s="9">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10">
+        <v>32</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.43</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43.6</v>
+      </c>
+      <c r="F19" s="10">
+        <v>86</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="H19" s="9">
+        <v>59.71</v>
+      </c>
+      <c r="I19" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18.75">
+      <c r="A20" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="B20" s="9">
+        <v>21.07</v>
+      </c>
+      <c r="C20" s="10">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="E20" s="9">
+        <v>44.31</v>
+      </c>
+      <c r="F20" s="10">
+        <v>88</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="H20" s="9">
+        <v>60.2</v>
+      </c>
+      <c r="I20" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
+      <c r="A21" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="B21" s="9">
+        <v>22.12</v>
+      </c>
+      <c r="C21" s="10">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="E21" s="9">
+        <v>45</v>
+      </c>
+      <c r="F21" s="10">
+        <v>90</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="H21" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="I21" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.75">
+      <c r="A22" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="B22" s="9">
+        <v>23.15</v>
+      </c>
+      <c r="C22" s="10">
+        <v>38</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="E22" s="9">
+        <v>45.68</v>
+      </c>
+      <c r="F22" s="10">
+        <v>92</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.73</v>
+      </c>
+      <c r="H22" s="9">
+        <v>61.18</v>
+      </c>
+      <c r="I22" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75">
+      <c r="A23" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B23" s="9">
+        <v>24.17</v>
+      </c>
+      <c r="C23" s="10">
+        <v>40</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="E23" s="9">
+        <v>46.36</v>
+      </c>
+      <c r="F23" s="10">
+        <v>94</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="H23" s="9">
+        <v>61.67</v>
+      </c>
+      <c r="I23" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="A24" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="B24" s="9">
+        <v>25.16</v>
+      </c>
+      <c r="C24" s="10">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="E24" s="9">
+        <v>47.03</v>
+      </c>
+      <c r="F24" s="10">
+        <v>96</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="H24" s="9">
+        <v>62.14</v>
+      </c>
+      <c r="I24" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.75">
+      <c r="A25" s="8">
+        <v>1.22</v>
+      </c>
+      <c r="B25" s="9">
+        <v>26.15</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="E25" s="9">
+        <v>47.68</v>
+      </c>
+      <c r="F25" s="10">
+        <v>98</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="H25" s="9">
+        <v>62.61</v>
+      </c>
+      <c r="I25" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18.75">
+      <c r="A26" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="B26" s="9">
+        <v>27.11</v>
+      </c>
+      <c r="C26" s="10">
+        <v>46</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="9">
+        <v>48.33</v>
+      </c>
+      <c r="F26" s="10">
+        <v>100</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="H26" s="9">
+        <v>63.08</v>
+      </c>
+      <c r="I26" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18.75">
+      <c r="A27" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="B27" s="9">
+        <v>28.06</v>
+      </c>
+      <c r="C27" s="10">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="E27" s="9">
+        <v>48.97</v>
+      </c>
+      <c r="F27" s="10">
+        <v>102</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="H27" s="9">
+        <v>63.54</v>
+      </c>
+      <c r="I27" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.75">
+      <c r="A28" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="B28" s="9">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10">
+        <v>50</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="E28" s="9">
+        <v>49.6</v>
+      </c>
+      <c r="F28" s="10">
+        <v>104</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="H28" s="9">
+        <v>63.99</v>
+      </c>
+      <c r="I28" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A29" s="12">
+        <v>1.26</v>
+      </c>
+      <c r="B29" s="13">
+        <v>29.92</v>
+      </c>
+      <c r="C29" s="14">
+        <v>52</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.53</v>
+      </c>
+      <c r="E29" s="13">
+        <v>50.23</v>
+      </c>
+      <c r="F29" s="14">
+        <v>106</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="H29" s="13">
+        <v>64.44</v>
+      </c>
+      <c r="I29" s="15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5">
+      <c r="A30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A30:I30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/readme.xlsx
+++ b/readme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="公式1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="密度、波美度、比重度对照表" sheetId="4" r:id="rId4"/>
     <sheet name="尿素" sheetId="5" r:id="rId5"/>
     <sheet name="硫酸" sheetId="6" r:id="rId6"/>
+    <sheet name="乙二醇" sheetId="7" r:id="rId7"/>
+    <sheet name="溶质质量" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>density</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +130,9 @@
   <si>
     <t>浓度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶质质量= 密度单位在g/CM3的时候- （-0.0055t^2+0.0228t+999.99）/1000</t>
   </si>
 </sst>
 </file>
@@ -808,7 +813,7 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A8" sqref="A8:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11129,7 +11134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13299,4 +13304,1911 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:B190"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="B5">
+        <f>A5*652.7-658.2</f>
+        <v>-4.8473000000000184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f>A5+0.001</f>
+        <v>1.0019999999999998</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B69" si="0">A6*652.7-658.2</f>
+        <v>-4.1946000000001504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" ref="A7:A70" si="1">A6+0.001</f>
+        <v>1.0029999999999997</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-3.5419000000001688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>1.0039999999999996</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-2.8892000000003009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>1.0049999999999994</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-2.2365000000003192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>1.0059999999999993</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-1.5838000000004513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>1.0069999999999992</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-0.93110000000046966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>1.0079999999999991</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-0.27840000000060172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1.008999999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.37429999999937991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>1.0099999999999989</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.0269999999992478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1.0109999999999988</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.6796999999992295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1.0119999999999987</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.3323999999990974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1.0129999999999986</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.985099999999079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>1.0139999999999985</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.637799999998947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>1.0149999999999983</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4.2904999999989286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>1.0159999999999982</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4.9431999999987966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>1.0169999999999981</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>5.5958999999987782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>1.017999999999998</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>6.2485999999987598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>1.0189999999999979</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6.9012999999986278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>1.0199999999999978</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>7.5539999999986094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>1.0209999999999977</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>8.2066999999984773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>1.0219999999999976</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>8.859399999998459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>1.0229999999999975</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>9.5120999999983269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>1.0239999999999974</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>10.164799999998309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>1.0249999999999972</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>10.817499999998176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>1.0259999999999971</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>11.470199999998158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>1.026999999999997</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>12.122899999998026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>1.0279999999999969</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>12.775599999998008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>1.0289999999999968</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>13.428299999997876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999967</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>14.080999999997857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>1.0309999999999966</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>14.733699999997725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>1.0319999999999965</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>15.386399999997707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>1.0329999999999964</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>16.039099999997575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f>A37+0.001</f>
+        <v>1.0339999999999963</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>16.691799999997556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>1.0349999999999961</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>17.344499999997538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>1.035999999999996</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>17.997199999997406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>1.0369999999999959</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>18.649899999997388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>1.0379999999999958</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>19.302599999997256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>1.0389999999999957</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>19.955299999997237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>1.0399999999999956</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>20.607999999997105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>1.0409999999999955</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>21.260699999997087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>1.0419999999999954</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>21.913399999996955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>1.0429999999999953</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>22.566099999996936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>1.0439999999999952</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>23.218799999996804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>1.044999999999995</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>23.871499999996786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>1.0459999999999949</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>24.524199999996654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>1.0469999999999948</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>25.176899999996635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>1.0479999999999947</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>25.829599999996503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>1.0489999999999946</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>26.482299999996485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999945</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>27.134999999996353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>1.0509999999999944</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>27.787699999996335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>1.0519999999999943</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>28.440399999996316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>1.0529999999999942</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>29.093099999996184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>1.0539999999999941</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>29.745799999996166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>1.0549999999999939</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>30.398499999996034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>1.0559999999999938</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>31.051199999996015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>1.0569999999999937</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>31.703899999995883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>1.0579999999999936</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>32.356599999995865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>1.0589999999999935</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>33.009299999995733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>1.0599999999999934</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>33.661999999995714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>1.0609999999999933</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>34.314699999995582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>1.0619999999999932</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>34.967399999995564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>1.0629999999999931</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>35.620099999995432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>1.063999999999993</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>36.272799999995414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>1.0649999999999928</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>36.925499999995282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>1.0659999999999927</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B133" si="2">A70*652.7-658.2</f>
+        <v>37.578199999995263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" ref="A71:A134" si="3">A70+0.001</f>
+        <v>1.0669999999999926</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>38.230899999995131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1.0679999999999925</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>38.883599999995113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1.0689999999999924</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>39.536299999995094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1.0699999999999923</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>40.188999999994962</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1.0709999999999922</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>40.841699999994944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1.0719999999999921</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>41.494399999994812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1.072999999999992</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>42.147099999994794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1.0739999999999919</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>42.799799999994661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>1.0749999999999917</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>43.452499999994643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>1.0759999999999916</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>44.105199999994511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>1.0769999999999915</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>44.757899999994493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>1.0779999999999914</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>45.410599999994361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>1.0789999999999913</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>46.063299999994342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>1.0799999999999912</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>46.71599999999421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>1.0809999999999911</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>47.368699999994192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>1.081999999999991</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>48.02139999999406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>1.0829999999999909</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>48.674099999994041</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>1.0839999999999907</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>49.326799999993909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>1.0849999999999906</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>49.979499999993891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>1.0859999999999905</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>50.632199999993873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>1.0869999999999904</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>51.28489999999374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>1.0879999999999903</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>51.937599999993722</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>1.0889999999999902</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>52.59029999999359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>1.0899999999999901</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>53.242999999993572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>1.09099999999999</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>53.89569999999344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>1.0919999999999899</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>54.548399999993421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>1.0929999999999898</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>55.201099999993289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>1.0939999999999896</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>55.853799999993271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>1.0949999999999895</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>56.506499999993139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>1.0959999999999894</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>57.15919999999312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>1.0969999999999893</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>57.811899999992988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>1.0979999999999892</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>58.46459999999297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>1.0989999999999891</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>59.117299999992838</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>1.099999999999989</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>59.76999999999282</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>1.1009999999999889</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>60.422699999992687</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <f t="shared" si="3"/>
+        <v>1.1019999999999888</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>61.075399999992669</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <f t="shared" si="3"/>
+        <v>1.1029999999999887</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>61.728099999992651</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <f t="shared" si="3"/>
+        <v>1.1039999999999885</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>62.380799999992519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>1.1049999999999884</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>63.0334999999925</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>1.1059999999999883</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>63.686199999992368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <f t="shared" si="3"/>
+        <v>1.1069999999999882</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>64.33889999999235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <f t="shared" si="3"/>
+        <v>1.1079999999999881</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>64.991599999992218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <f t="shared" si="3"/>
+        <v>1.108999999999988</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>65.644299999992199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <f t="shared" si="3"/>
+        <v>1.1099999999999879</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>66.296999999992067</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <f t="shared" si="3"/>
+        <v>1.1109999999999878</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>66.949699999992049</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <f t="shared" si="3"/>
+        <v>1.1119999999999877</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>67.602399999991917</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <f t="shared" si="3"/>
+        <v>1.1129999999999876</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>68.255099999991899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <f t="shared" si="3"/>
+        <v>1.1139999999999874</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>68.907799999991767</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <f t="shared" si="3"/>
+        <v>1.1149999999999873</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>69.560499999991748</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <f t="shared" si="3"/>
+        <v>1.1159999999999872</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>70.213199999991616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <f t="shared" si="3"/>
+        <v>1.1169999999999871</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>70.865899999991598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <f t="shared" si="3"/>
+        <v>1.117999999999987</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>71.518599999991579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <f t="shared" si="3"/>
+        <v>1.1189999999999869</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>72.171299999991447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <f t="shared" si="3"/>
+        <v>1.1199999999999868</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>72.823999999991429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <f t="shared" si="3"/>
+        <v>1.1209999999999867</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>73.476699999991297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <f t="shared" si="3"/>
+        <v>1.1219999999999866</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>74.129399999991278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <f t="shared" si="3"/>
+        <v>1.1229999999999865</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>74.782099999991146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <f t="shared" si="3"/>
+        <v>1.1239999999999863</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>75.434799999991128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <f t="shared" si="3"/>
+        <v>1.1249999999999862</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>76.087499999990996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <f t="shared" si="3"/>
+        <v>1.1259999999999861</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="2"/>
+        <v>76.740199999990978</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <f t="shared" si="3"/>
+        <v>1.126999999999986</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="2"/>
+        <v>77.392899999990846</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <f t="shared" si="3"/>
+        <v>1.1279999999999859</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>78.045599999990827</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <f t="shared" si="3"/>
+        <v>1.1289999999999858</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>78.698299999990695</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <f t="shared" si="3"/>
+        <v>1.1299999999999857</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:B190" si="4">A134*652.7-658.2</f>
+        <v>79.350999999990677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <f t="shared" ref="A135:A143" si="5">A134+0.001</f>
+        <v>1.1309999999999856</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="4"/>
+        <v>80.003699999990545</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <f t="shared" si="5"/>
+        <v>1.1319999999999855</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="4"/>
+        <v>80.656399999990526</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <f t="shared" si="5"/>
+        <v>1.1329999999999854</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="4"/>
+        <v>81.309099999990394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <f t="shared" si="5"/>
+        <v>1.1339999999999852</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="4"/>
+        <v>81.961799999990376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <f t="shared" si="5"/>
+        <v>1.1349999999999851</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="4"/>
+        <v>82.614499999990358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <f t="shared" si="5"/>
+        <v>1.135999999999985</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="4"/>
+        <v>83.267199999990225</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <f t="shared" si="5"/>
+        <v>1.1369999999999849</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="4"/>
+        <v>83.919899999990207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <f t="shared" si="5"/>
+        <v>1.1379999999999848</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="4"/>
+        <v>84.572599999990075</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <f t="shared" si="5"/>
+        <v>1.1389999999999847</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="4"/>
+        <v>85.225299999990057</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <f t="shared" ref="A144:A190" si="6">A143+0.001</f>
+        <v>1.1399999999999846</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="4"/>
+        <v>85.877999999989925</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <f t="shared" si="6"/>
+        <v>1.1409999999999845</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="4"/>
+        <v>86.530699999989906</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <f t="shared" si="6"/>
+        <v>1.1419999999999844</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="4"/>
+        <v>87.183399999989774</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <f t="shared" si="6"/>
+        <v>1.1429999999999843</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="4"/>
+        <v>87.836099999989756</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <f t="shared" si="6"/>
+        <v>1.1439999999999841</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="4"/>
+        <v>88.488799999989624</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <f t="shared" si="6"/>
+        <v>1.144999999999984</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="4"/>
+        <v>89.141499999989605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <f t="shared" si="6"/>
+        <v>1.1459999999999839</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="4"/>
+        <v>89.794199999989473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <f t="shared" si="6"/>
+        <v>1.1469999999999838</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="4"/>
+        <v>90.446899999989455</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <f t="shared" si="6"/>
+        <v>1.1479999999999837</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="4"/>
+        <v>91.099599999989323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <f t="shared" si="6"/>
+        <v>1.1489999999999836</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="4"/>
+        <v>91.752299999989305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <f t="shared" si="6"/>
+        <v>1.1499999999999835</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="4"/>
+        <v>92.404999999989172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <f t="shared" si="6"/>
+        <v>1.1509999999999834</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="4"/>
+        <v>93.057699999989154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <f t="shared" si="6"/>
+        <v>1.1519999999999833</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="4"/>
+        <v>93.710399999989136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <f t="shared" si="6"/>
+        <v>1.1529999999999831</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="4"/>
+        <v>94.363099999989004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <f t="shared" si="6"/>
+        <v>1.153999999999983</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="4"/>
+        <v>95.015799999988985</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <f t="shared" si="6"/>
+        <v>1.1549999999999829</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="4"/>
+        <v>95.668499999988853</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <f t="shared" si="6"/>
+        <v>1.1559999999999828</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="4"/>
+        <v>96.321199999988835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <f t="shared" si="6"/>
+        <v>1.1569999999999827</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>96.973899999988703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <f t="shared" si="6"/>
+        <v>1.1579999999999826</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>97.626599999988684</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <f t="shared" si="6"/>
+        <v>1.1589999999999825</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="4"/>
+        <v>98.279299999988552</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <f t="shared" si="6"/>
+        <v>1.1599999999999824</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>98.931999999988534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <f t="shared" si="6"/>
+        <v>1.1609999999999823</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="4"/>
+        <v>99.584699999988402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <f t="shared" si="6"/>
+        <v>1.1619999999999822</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>100.23739999998838</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <f t="shared" si="6"/>
+        <v>1.162999999999982</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="4"/>
+        <v>100.89009999998825</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <f t="shared" si="6"/>
+        <v>1.1639999999999819</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="4"/>
+        <v>101.54279999998823</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <f t="shared" si="6"/>
+        <v>1.1649999999999818</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="4"/>
+        <v>102.1954999999881</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <f t="shared" si="6"/>
+        <v>1.1659999999999817</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="4"/>
+        <v>102.84819999998808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <f t="shared" si="6"/>
+        <v>1.1669999999999816</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="4"/>
+        <v>103.50089999998795</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <f t="shared" si="6"/>
+        <v>1.1679999999999815</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="4"/>
+        <v>104.15359999998793</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <f t="shared" si="6"/>
+        <v>1.1689999999999814</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="4"/>
+        <v>104.80629999998791</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <f t="shared" si="6"/>
+        <v>1.1699999999999813</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="4"/>
+        <v>105.45899999998778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <f t="shared" si="6"/>
+        <v>1.1709999999999812</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="4"/>
+        <v>106.11169999998776</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <f t="shared" si="6"/>
+        <v>1.1719999999999811</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="4"/>
+        <v>106.76439999998763</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <f t="shared" si="6"/>
+        <v>1.1729999999999809</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="4"/>
+        <v>107.41709999998761</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <f t="shared" si="6"/>
+        <v>1.1739999999999808</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="4"/>
+        <v>108.06979999998748</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <f t="shared" si="6"/>
+        <v>1.1749999999999807</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="4"/>
+        <v>108.72249999998746</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <f t="shared" si="6"/>
+        <v>1.1759999999999806</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="4"/>
+        <v>109.37519999998733</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <f t="shared" si="6"/>
+        <v>1.1769999999999805</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="4"/>
+        <v>110.02789999998731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <f t="shared" si="6"/>
+        <v>1.1779999999999804</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="4"/>
+        <v>110.68059999998718</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <f t="shared" si="6"/>
+        <v>1.1789999999999803</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="4"/>
+        <v>111.33329999998716</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <f t="shared" si="6"/>
+        <v>1.1799999999999802</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="4"/>
+        <v>111.98599999998703</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <f t="shared" si="6"/>
+        <v>1.1809999999999801</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="4"/>
+        <v>112.63869999998701</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <f t="shared" si="6"/>
+        <v>1.18199999999998</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="4"/>
+        <v>113.29139999998688</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <f t="shared" si="6"/>
+        <v>1.1829999999999798</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="4"/>
+        <v>113.94409999998686</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <f t="shared" si="6"/>
+        <v>1.1839999999999797</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="4"/>
+        <v>114.59679999998673</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <f t="shared" si="6"/>
+        <v>1.1849999999999796</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="4"/>
+        <v>115.24949999998671</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <f t="shared" si="6"/>
+        <v>1.1859999999999795</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="4"/>
+        <v>115.90219999998669</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>